--- a/My project/Luban/Config/Datas/__enums__.xlsx
+++ b/My project/Luban/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B73ECA-43CA-4C11-B562-7C98664934DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D81AA-E0CD-4A39-A415-59D437E01433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14640" yWindow="5190" windowWidth="28800" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-20460" yWindow="6105" windowWidth="28800" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>SkillTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AroundSelf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己周围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ult</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -716,6 +740,40 @@
         <v>32</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/My project/Luban/Config/Datas/__enums__.xlsx
+++ b/My project/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D81AA-E0CD-4A39-A415-59D437E01433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E059213-4001-4F8E-A112-2879EBB58238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20460" yWindow="6105" windowWidth="28800" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-28800" yWindow="7305" windowWidth="28800" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,25 @@
   </si>
   <si>
     <t>Ult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumCardProperty</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚幻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪回</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -748,7 +767,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -759,19 +778,41 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/My project/Luban/Config/Datas/__enums__.xlsx
+++ b/My project/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E059213-4001-4F8E-A112-2879EBB58238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB3960-383F-4CDD-8340-3228FA3DDF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="7305" windowWidth="28800" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,26 @@
   </si>
   <si>
     <t>闪回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -815,6 +835,28 @@
         <v>44</v>
       </c>
     </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J27" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G1:K1"/>

--- a/My project/Luban/Config/Datas/__enums__.xlsx
+++ b/My project/Luban/Config/Datas/__enums__.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BB3960-383F-4CDD-8340-3228FA3DDF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48D72E-D026-42E9-A569-B3D37E75F565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="-28740" yWindow="6525" windowWidth="28740" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +223,22 @@
   </si>
   <si>
     <t>魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultipleAlly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些友方（敌人限定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultipleEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些敌人（敌人限定）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -787,73 +803,89 @@
         <v>35</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="b">
+      <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="b">
+      <c r="D23" t="b">
         <v>1</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>41</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G23" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
         <v>43</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="D26" t="b">
+      <c r="D27" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>46</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
         <v>47</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J28" t="s">
         <v>49</v>
       </c>
     </row>

--- a/My project/Luban/Config/Datas/__enums__.xlsx
+++ b/My project/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE48D72E-D026-42E9-A569-B3D37E75F565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E17D9-4489-4AC2-916E-5B8E0A35A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28740" yWindow="6525" windowWidth="28740" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28740" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,22 @@
   </si>
   <si>
     <t>一些敌人（敌人限定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endanger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在危险区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -633,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,6 +769,9 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
@@ -820,72 +839,88 @@
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="G18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" t="b">
+      <c r="D28" t="b">
         <v>1</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G20" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G21" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="b">
+      <c r="D33" t="b">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G33" t="s">
         <v>41</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G24" t="s">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
         <v>43</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J34" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="b">
+      <c r="D37" t="b">
         <v>1</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G37" t="s">
         <v>46</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J37" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G28" t="s">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
         <v>47</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J38" t="s">
         <v>49</v>
       </c>
     </row>

--- a/My project/Luban/Config/Datas/__enums__.xlsx
+++ b/My project/Luban/Config/Datas/__enums__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lofnh\Documents\GitHub\Draconia\My project\Luban\Config\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80E17D9-4489-4AC2-916E-5B8E0A35A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974672C9-D757-4A9B-9DB0-9CD0A248E1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28740" windowHeight="9915" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28740" windowHeight="13575" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>枚举名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,22 @@
   </si>
   <si>
     <t>双重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrueDamage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DoubleEnemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个敌人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -846,6 +862,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>36</v>
@@ -922,6 +946,14 @@
       </c>
       <c r="J38" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
